--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H2">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N2">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O2">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P2">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q2">
-        <v>558.4877604647044</v>
+        <v>588.6030493414412</v>
       </c>
       <c r="R2">
-        <v>558.4877604647044</v>
+        <v>5297.427444072971</v>
       </c>
       <c r="S2">
-        <v>0.01327708143586301</v>
+        <v>0.012635193278912</v>
       </c>
       <c r="T2">
-        <v>0.01327708143586301</v>
+        <v>0.012635193278912</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H3">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N3">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O3">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P3">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q3">
-        <v>789.4230450897879</v>
+        <v>809.8951818758057</v>
       </c>
       <c r="R3">
-        <v>789.4230450897879</v>
+        <v>7289.056636882252</v>
       </c>
       <c r="S3">
-        <v>0.01876716877068691</v>
+        <v>0.01738554051004288</v>
       </c>
       <c r="T3">
-        <v>0.01876716877068691</v>
+        <v>0.01738554051004288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H4">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N4">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O4">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P4">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q4">
-        <v>2076.161295926871</v>
+        <v>2138.388470935019</v>
       </c>
       <c r="R4">
-        <v>2076.161295926871</v>
+        <v>19245.49623841517</v>
       </c>
       <c r="S4">
-        <v>0.04935714719526076</v>
+        <v>0.0459035196400889</v>
       </c>
       <c r="T4">
-        <v>0.04935714719526076</v>
+        <v>0.0459035196400889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H5">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N5">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O5">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P5">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q5">
-        <v>2779.780652045362</v>
+        <v>3391.652186209014</v>
       </c>
       <c r="R5">
-        <v>2779.780652045362</v>
+        <v>30524.86967588112</v>
       </c>
       <c r="S5">
-        <v>0.06608448152978842</v>
+        <v>0.07280659003643074</v>
       </c>
       <c r="T5">
-        <v>0.06608448152978842</v>
+        <v>0.07280659003643074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H6">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I6">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J6">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.73842966589025</v>
+        <v>5.932863999999999</v>
       </c>
       <c r="N6">
-        <v>5.73842966589025</v>
+        <v>17.798592</v>
       </c>
       <c r="O6">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="P6">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="Q6">
-        <v>272.6817218105983</v>
+        <v>289.2071440469119</v>
       </c>
       <c r="R6">
-        <v>272.6817218105983</v>
+        <v>2602.864296422208</v>
       </c>
       <c r="S6">
-        <v>0.0064825367408915</v>
+        <v>0.006208238585857425</v>
       </c>
       <c r="T6">
-        <v>0.0064825367408915</v>
+        <v>0.006208238585857425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H7">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N7">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O7">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P7">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q7">
-        <v>210.344334076279</v>
+        <v>225.2623259761404</v>
       </c>
       <c r="R7">
-        <v>210.344334076279</v>
+        <v>2027.360933785264</v>
       </c>
       <c r="S7">
-        <v>0.005000573066774719</v>
+        <v>0.004835573023874619</v>
       </c>
       <c r="T7">
-        <v>0.005000573066774719</v>
+        <v>0.004835573023874618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H8">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N8">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O8">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P8">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q8">
-        <v>297.3219405662767</v>
+        <v>309.9523060071386</v>
       </c>
       <c r="R8">
-        <v>297.3219405662767</v>
+        <v>2789.570754064247</v>
       </c>
       <c r="S8">
-        <v>0.007068315363406713</v>
+        <v>0.006653562699048937</v>
       </c>
       <c r="T8">
-        <v>0.007068315363406713</v>
+        <v>0.006653562699048936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H9">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N9">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O9">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P9">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q9">
-        <v>781.9486766608944</v>
+        <v>818.3755781461432</v>
       </c>
       <c r="R9">
-        <v>781.9486766608944</v>
+        <v>7365.380203315288</v>
       </c>
       <c r="S9">
-        <v>0.01858947857702986</v>
+        <v>0.01756758415741672</v>
       </c>
       <c r="T9">
-        <v>0.01858947857702986</v>
+        <v>0.01756758415741671</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H10">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J10">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N10">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O10">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P10">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q10">
-        <v>1046.954206563242</v>
+        <v>1298.007988953368</v>
       </c>
       <c r="R10">
-        <v>1046.954206563242</v>
+        <v>11682.07190058031</v>
       </c>
       <c r="S10">
-        <v>0.02488952711979441</v>
+        <v>0.02786356923625774</v>
       </c>
       <c r="T10">
-        <v>0.02488952711979441</v>
+        <v>0.02786356923625774</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H11">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J11">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.73842966589025</v>
+        <v>5.932863999999999</v>
       </c>
       <c r="N11">
-        <v>5.73842966589025</v>
+        <v>17.798592</v>
       </c>
       <c r="O11">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="P11">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="Q11">
-        <v>102.7006485178799</v>
+        <v>110.6815094312107</v>
       </c>
       <c r="R11">
-        <v>102.7006485178799</v>
+        <v>996.133584880896</v>
       </c>
       <c r="S11">
-        <v>0.002441530451362523</v>
+        <v>0.002375934452989601</v>
       </c>
       <c r="T11">
-        <v>0.002441530451362523</v>
+        <v>0.002375934452989601</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H12">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N12">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O12">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P12">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q12">
-        <v>1144.527845137071</v>
+        <v>1179.235967572919</v>
       </c>
       <c r="R12">
-        <v>1144.527845137071</v>
+        <v>10613.12370815627</v>
       </c>
       <c r="S12">
-        <v>0.02720917176923175</v>
+        <v>0.02531396055185132</v>
       </c>
       <c r="T12">
-        <v>0.02720917176923175</v>
+        <v>0.02531396055185132</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H13">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N13">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O13">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P13">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q13">
-        <v>1617.791329833917</v>
+        <v>1622.583385357122</v>
       </c>
       <c r="R13">
-        <v>1617.791329833917</v>
+        <v>14603.2504682141</v>
       </c>
       <c r="S13">
-        <v>0.0384601933166188</v>
+        <v>0.03483103716176272</v>
       </c>
       <c r="T13">
-        <v>0.0384601933166188</v>
+        <v>0.03483103716176272</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H14">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I14">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J14">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N14">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O14">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P14">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q14">
-        <v>4254.74752071016</v>
+        <v>4284.151433451115</v>
       </c>
       <c r="R14">
-        <v>4254.74752071016</v>
+        <v>38557.36290106003</v>
       </c>
       <c r="S14">
-        <v>0.1011492700833775</v>
+        <v>0.09196534312614811</v>
       </c>
       <c r="T14">
-        <v>0.1011492700833775</v>
+        <v>0.09196534312614811</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H15">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I15">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J15">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N15">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O15">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P15">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q15">
-        <v>5696.698450458288</v>
+        <v>6795.000895679865</v>
       </c>
       <c r="R15">
-        <v>5696.698450458288</v>
+        <v>61155.00806111877</v>
       </c>
       <c r="S15">
-        <v>0.1354291617409033</v>
+        <v>0.1458642624148064</v>
       </c>
       <c r="T15">
-        <v>0.1354291617409033</v>
+        <v>0.1458642624148064</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H16">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I16">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J16">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.73842966589025</v>
+        <v>5.932863999999999</v>
       </c>
       <c r="N16">
-        <v>5.73842966589025</v>
+        <v>17.798592</v>
       </c>
       <c r="O16">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="P16">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="Q16">
-        <v>558.8158695052981</v>
+        <v>579.4116539503786</v>
       </c>
       <c r="R16">
-        <v>558.8158695052981</v>
+        <v>5214.704885553408</v>
       </c>
       <c r="S16">
-        <v>0.01328488166132933</v>
+        <v>0.01243788703423842</v>
       </c>
       <c r="T16">
-        <v>0.01328488166132933</v>
+        <v>0.01243788703423842</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H17">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N17">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O17">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P17">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q17">
-        <v>1608.686424718236</v>
+        <v>1675.007272341959</v>
       </c>
       <c r="R17">
-        <v>1608.686424718236</v>
+        <v>15075.06545107763</v>
       </c>
       <c r="S17">
-        <v>0.03824373993080761</v>
+        <v>0.03595638971511148</v>
       </c>
       <c r="T17">
-        <v>0.03824373993080761</v>
+        <v>0.03595638971511148</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H18">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I18">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J18">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N18">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O18">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P18">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q18">
-        <v>2273.879977135026</v>
+        <v>2304.745653279402</v>
       </c>
       <c r="R18">
-        <v>2273.879977135026</v>
+        <v>20742.71087951462</v>
       </c>
       <c r="S18">
-        <v>0.05405756718227678</v>
+        <v>0.04947461081028971</v>
       </c>
       <c r="T18">
-        <v>0.05405756718227678</v>
+        <v>0.04947461081028971</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H19">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I19">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J19">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N19">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O19">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P19">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q19">
-        <v>5980.242950183784</v>
+        <v>6085.283186887795</v>
       </c>
       <c r="R19">
-        <v>5980.242950183784</v>
+        <v>54767.54868199015</v>
       </c>
       <c r="S19">
-        <v>0.1421699422557959</v>
+        <v>0.1306291724265918</v>
       </c>
       <c r="T19">
-        <v>0.1421699422557959</v>
+        <v>0.1306291724265918</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H20">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I20">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J20">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N20">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O20">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P20">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q20">
-        <v>8006.971173224829</v>
+        <v>9651.737420509186</v>
       </c>
       <c r="R20">
-        <v>8006.971173224829</v>
+        <v>86865.63678458266</v>
       </c>
       <c r="S20">
-        <v>0.1903519035637527</v>
+        <v>0.2071881345533066</v>
       </c>
       <c r="T20">
-        <v>0.1903519035637527</v>
+        <v>0.2071881345533066</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H21">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I21">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J21">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.73842966589025</v>
+        <v>5.932863999999999</v>
       </c>
       <c r="N21">
-        <v>5.73842966589025</v>
+        <v>17.798592</v>
       </c>
       <c r="O21">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="P21">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="Q21">
-        <v>785.4413564596405</v>
+        <v>823.0063878089387</v>
       </c>
       <c r="R21">
-        <v>785.4413564596405</v>
+        <v>7407.057490280448</v>
       </c>
       <c r="S21">
-        <v>0.01867251100387975</v>
+        <v>0.01766699100757276</v>
       </c>
       <c r="T21">
-        <v>0.01867251100387975</v>
+        <v>0.01766699100757276</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H22">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I22">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J22">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N22">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O22">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P22">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q22">
-        <v>105.241466197974</v>
+        <v>130.8234653541195</v>
       </c>
       <c r="R22">
-        <v>105.241466197974</v>
+        <v>1177.411188187076</v>
       </c>
       <c r="S22">
-        <v>0.002501934001163185</v>
+        <v>0.002808309899202502</v>
       </c>
       <c r="T22">
-        <v>0.002501934001163185</v>
+        <v>0.002808309899202502</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H23">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I23">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J23">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N23">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O23">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P23">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q23">
-        <v>148.7589247194776</v>
+        <v>180.0080621144313</v>
       </c>
       <c r="R23">
-        <v>148.7589247194776</v>
+        <v>1620.072559029882</v>
       </c>
       <c r="S23">
-        <v>0.003536486379161646</v>
+        <v>0.003864126526566573</v>
       </c>
       <c r="T23">
-        <v>0.003536486379161646</v>
+        <v>0.003864126526566573</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H24">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I24">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J24">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N24">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O24">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P24">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q24">
-        <v>391.2319558534683</v>
+        <v>475.2802255340269</v>
       </c>
       <c r="R24">
-        <v>391.2319558534683</v>
+        <v>4277.522029806242</v>
       </c>
       <c r="S24">
-        <v>0.009300863699960603</v>
+        <v>0.01020255929354478</v>
       </c>
       <c r="T24">
-        <v>0.009300863699960603</v>
+        <v>0.01020255929354478</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H25">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I25">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J25">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N25">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O25">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P25">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q25">
-        <v>523.8220284122101</v>
+        <v>753.8317933829619</v>
       </c>
       <c r="R25">
-        <v>523.8220284122101</v>
+        <v>6784.486140446657</v>
       </c>
       <c r="S25">
-        <v>0.0124529635588449</v>
+        <v>0.01618206093196326</v>
       </c>
       <c r="T25">
-        <v>0.0124529635588449</v>
+        <v>0.01618206093196326</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H26">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I26">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J26">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.73842966589025</v>
+        <v>5.932863999999999</v>
       </c>
       <c r="N26">
-        <v>5.73842966589025</v>
+        <v>17.798592</v>
       </c>
       <c r="O26">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="P26">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="Q26">
-        <v>51.38415958275787</v>
+        <v>64.27945086542933</v>
       </c>
       <c r="R26">
-        <v>51.38415958275787</v>
+        <v>578.5150577888639</v>
       </c>
       <c r="S26">
-        <v>0.001221569602037452</v>
+        <v>0.001379848926123877</v>
       </c>
       <c r="T26">
-        <v>0.001221569602037452</v>
+        <v>0.001379848926123877</v>
       </c>
     </row>
   </sheetData>
